--- a/222222222.xlsx
+++ b/222222222.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86182\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9D8C34-5E9F-4908-9D8C-182C88E7BF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3F342F-1A79-4639-BDDF-CA016A70DF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
